--- a/docss/trend/austria/E_huntington.xlsx
+++ b/docss/trend/austria/E_huntington.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\austria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\austria\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,7 +239,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,7 +522,7 @@
   <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,16 +619,16 @@
         <v>9</v>
       </c>
       <c r="C5" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D5" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E5" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F5" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="I5" s="5"/>
     </row>
@@ -641,16 +640,16 @@
         <v>10</v>
       </c>
       <c r="C6" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D6" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E6" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F6" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="I6" s="5"/>
     </row>
@@ -704,16 +703,16 @@
         <v>13</v>
       </c>
       <c r="C9" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D9" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E9" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F9" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -725,16 +724,16 @@
         <v>14</v>
       </c>
       <c r="C10" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D10" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E10" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F10" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="I10" s="5"/>
     </row>
@@ -767,16 +766,16 @@
         <v>16</v>
       </c>
       <c r="C12" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D12" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E12" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F12" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -830,16 +829,16 @@
         <v>19</v>
       </c>
       <c r="C15" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D15" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E15" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F15" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -872,16 +871,16 @@
         <v>21</v>
       </c>
       <c r="C17" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D17" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E17" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F17" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="I17" s="5"/>
     </row>
@@ -893,16 +892,16 @@
         <v>22</v>
       </c>
       <c r="C18" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D18" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E18" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F18" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -956,16 +955,16 @@
         <v>25</v>
       </c>
       <c r="C21" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D21" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E21" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F21" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -1040,16 +1039,16 @@
         <v>29</v>
       </c>
       <c r="C25" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D25" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E25" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F25" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1220,16 +1219,16 @@
         <v>38</v>
       </c>
       <c r="C34" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D34" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E34" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F34" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1240,16 +1239,16 @@
         <v>39</v>
       </c>
       <c r="C35" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D35" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E35" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F35" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1260,16 +1259,16 @@
         <v>40</v>
       </c>
       <c r="C36" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D36" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E36" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F36" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1280,16 +1279,16 @@
         <v>41</v>
       </c>
       <c r="C37" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D37" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E37" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F37" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1300,16 +1299,16 @@
         <v>42</v>
       </c>
       <c r="C38" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D38" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E38" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F38" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1320,16 +1319,16 @@
         <v>43</v>
       </c>
       <c r="C39" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D39" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E39" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F39" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1340,16 +1339,16 @@
         <v>44</v>
       </c>
       <c r="C40" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D40" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E40" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F40" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1360,16 +1359,16 @@
         <v>45</v>
       </c>
       <c r="C41" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D41" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E41" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F41" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1380,16 +1379,16 @@
         <v>46</v>
       </c>
       <c r="C42" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D42" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E42" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F42" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1400,16 +1399,16 @@
         <v>47</v>
       </c>
       <c r="C43" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D43" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E43" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F43" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1420,16 +1419,16 @@
         <v>48</v>
       </c>
       <c r="C44" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D44" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E44" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F44" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1559,10 +1558,13 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1582,182 +1584,182 @@
       <c r="A2">
         <v>2002</v>
       </c>
-      <c r="B2" s="7">
-        <v>0.14934587478637695</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0.1512580681592226</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0.15007692761719227</v>
+      <c r="B2">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.151</v>
+      </c>
+      <c r="D2">
+        <v>0.15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2003</v>
       </c>
-      <c r="B3" s="7">
-        <v>0.17743420694023371</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.14440937899053097</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.21238370984792709</v>
+      <c r="B3">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.21199999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2004</v>
       </c>
-      <c r="B4" s="7">
-        <v>0.14499300392344594</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.16173376888036728</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.13409163476899266</v>
+      <c r="B4">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.13400000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2005</v>
       </c>
-      <c r="B5" s="7">
-        <v>0.15754468832165003</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.14809744246304035</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.17463115602731705</v>
+      <c r="B5">
+        <v>0.158</v>
+      </c>
+      <c r="C5">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.17499999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2006</v>
       </c>
-      <c r="B6" s="7">
-        <v>0.20003496762365103</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.19545513205230236</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.20669145509600639</v>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+      <c r="C6">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.20699999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2007</v>
       </c>
-      <c r="B7" s="7">
-        <v>0.13659920822829008</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.13392346911132336</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.13735125027596951</v>
+      <c r="B7">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.13700000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2008</v>
       </c>
-      <c r="B8" s="7">
-        <v>0.14564462378621101</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.18647816032171249</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.11059048771858215</v>
+      <c r="B8">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.186</v>
+      </c>
+      <c r="D8">
+        <v>0.111</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2009</v>
       </c>
-      <c r="B9" s="7">
-        <v>0.20382888754829764</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.19306838326156139</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.21463301498442888</v>
+      <c r="B9">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.193</v>
+      </c>
+      <c r="D9">
+        <v>0.215</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2010</v>
       </c>
-      <c r="B10" s="7">
-        <v>0.19482697686180472</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.17145386897027493</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.21698565036058426</v>
+      <c r="B10">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.217</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2011</v>
       </c>
-      <c r="B11" s="7">
-        <v>0.34145928313955665</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.38944633584469557</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.30835140636190772</v>
+      <c r="B11">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="C11">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.308</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2012</v>
       </c>
-      <c r="B12" s="7">
-        <v>0.26966010220348835</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0.31982741504907608</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0.2247531721368432</v>
+      <c r="B12">
+        <v>0.27</v>
+      </c>
+      <c r="C12">
+        <v>0.32</v>
+      </c>
+      <c r="D12">
+        <v>0.22500000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2013</v>
       </c>
-      <c r="B13" s="7">
-        <v>0.22481394466012716</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.12019211798906326</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0.3199111083522439</v>
+      <c r="B13">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.12</v>
+      </c>
+      <c r="D13">
+        <v>0.32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2014</v>
       </c>
-      <c r="B14" s="7">
-        <v>0.29666093364357948</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.32144660130143166</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0.28309573559090495</v>
+      <c r="B14">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="C14">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="D14">
+        <v>0.28299999999999997</v>
       </c>
     </row>
   </sheetData>
